--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Flt1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Flt1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H2">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I2">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J2">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N2">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O2">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P2">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q2">
-        <v>572.7129882554173</v>
+        <v>4834.499686534791</v>
       </c>
       <c r="R2">
-        <v>5154.416894298755</v>
+        <v>43510.49717881312</v>
       </c>
       <c r="S2">
-        <v>0.657390922597301</v>
+        <v>0.8819452831420589</v>
       </c>
       <c r="T2">
-        <v>0.657390922597301</v>
+        <v>0.8819452831420589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H3">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I3">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J3">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.350685</v>
       </c>
       <c r="O3">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P3">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q3">
-        <v>1.808677821093889</v>
+        <v>19.28420038368444</v>
       </c>
       <c r="R3">
-        <v>16.278100389845</v>
+        <v>173.5578034531599</v>
       </c>
       <c r="S3">
-        <v>0.002076098160637343</v>
+        <v>0.003517966836346464</v>
       </c>
       <c r="T3">
-        <v>0.002076098160637342</v>
+        <v>0.003517966836346465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H4">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I4">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J4">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N4">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O4">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P4">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q4">
-        <v>5.616962437163222</v>
+        <v>93.7346616992062</v>
       </c>
       <c r="R4">
-        <v>50.552661934469</v>
+        <v>843.6119552928558</v>
       </c>
       <c r="S4">
-        <v>0.006447453077691203</v>
+        <v>0.01709977207833594</v>
       </c>
       <c r="T4">
-        <v>0.0064474530776912</v>
+        <v>0.01709977207833595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H5">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I5">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J5">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N5">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O5">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P5">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q5">
-        <v>9.138672816355221</v>
+        <v>118.1877333722782</v>
       </c>
       <c r="R5">
-        <v>82.248055347197</v>
+        <v>1063.689600350504</v>
       </c>
       <c r="S5">
-        <v>0.01048986259654957</v>
+        <v>0.02156068274515586</v>
       </c>
       <c r="T5">
-        <v>0.01048986259654957</v>
+        <v>0.02156068274515586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H6">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I6">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J6">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N6">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O6">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P6">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q6">
-        <v>14.81693172698233</v>
+        <v>171.0478455966266</v>
       </c>
       <c r="R6">
-        <v>133.352385542841</v>
+        <v>1539.43061036964</v>
       </c>
       <c r="S6">
-        <v>0.01700767507950786</v>
+        <v>0.03120381640228914</v>
       </c>
       <c r="T6">
-        <v>0.01700767507950786</v>
+        <v>0.03120381640228914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H7">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I7">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J7">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N7">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O7">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P7">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q7">
-        <v>10.71352953158456</v>
+        <v>45.80818717127466</v>
       </c>
       <c r="R7">
-        <v>96.421765784261</v>
+        <v>412.273684541472</v>
       </c>
       <c r="S7">
-        <v>0.01229756825403232</v>
+        <v>0.008356669195267208</v>
       </c>
       <c r="T7">
-        <v>0.01229756825403231</v>
+        <v>0.008356669195267208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.970546</v>
       </c>
       <c r="I8">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J8">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N8">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O8">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P8">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q8">
-        <v>46.12150928113866</v>
+        <v>36.515528628562</v>
       </c>
       <c r="R8">
-        <v>415.093583530248</v>
+        <v>328.639757657058</v>
       </c>
       <c r="S8">
-        <v>0.05294076118348087</v>
+        <v>0.006661433514019385</v>
       </c>
       <c r="T8">
-        <v>0.05294076118348087</v>
+        <v>0.006661433514019385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.970546</v>
       </c>
       <c r="I9">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J9">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.350685</v>
       </c>
       <c r="O9">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P9">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q9">
         <v>0.1456557693344444</v>
@@ -1013,10 +1013,10 @@
         <v>1.31090192401</v>
       </c>
       <c r="S9">
-        <v>0.0001671915646196005</v>
+        <v>2.657160555511736E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001671915646196005</v>
+        <v>2.657160555511736E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>0.970546</v>
       </c>
       <c r="I10">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J10">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N10">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O10">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P10">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q10">
-        <v>0.4523431290891111</v>
+        <v>0.7079886119962222</v>
       </c>
       <c r="R10">
-        <v>4.071088161802</v>
+        <v>6.371897507966</v>
       </c>
       <c r="S10">
-        <v>0.0005192238923518566</v>
+        <v>0.0001291565327033697</v>
       </c>
       <c r="T10">
-        <v>0.0005192238923518563</v>
+        <v>0.0001291565327033697</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.970546</v>
       </c>
       <c r="I11">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J11">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N11">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O11">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P11">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q11">
-        <v>0.7359521990251111</v>
+        <v>0.8926854568882224</v>
       </c>
       <c r="R11">
-        <v>6.623569791226</v>
+        <v>8.034169111994002</v>
       </c>
       <c r="S11">
-        <v>0.0008447657116671895</v>
+        <v>0.0001628503007715348</v>
       </c>
       <c r="T11">
-        <v>0.0008447657116671895</v>
+        <v>0.0001628503007715348</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.970546</v>
       </c>
       <c r="I12">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J12">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N12">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O12">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P12">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q12">
-        <v>1.193231632908667</v>
+        <v>1.291943925476666</v>
       </c>
       <c r="R12">
-        <v>10.739084696178</v>
+        <v>11.62749532929</v>
       </c>
       <c r="S12">
-        <v>0.001369655761465425</v>
+        <v>0.0002356859913202068</v>
       </c>
       <c r="T12">
-        <v>0.001369655761465425</v>
+        <v>0.0002356859913202069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.970546</v>
       </c>
       <c r="I13">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J13">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N13">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O13">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P13">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q13">
-        <v>0.8627779740597777</v>
+        <v>0.3459944727546667</v>
       </c>
       <c r="R13">
-        <v>7.765001766538</v>
+        <v>3.113950254792</v>
       </c>
       <c r="S13">
-        <v>0.0009903431910834139</v>
+        <v>6.311887744850014E-05</v>
       </c>
       <c r="T13">
-        <v>0.0009903431910834135</v>
+        <v>6.311887744850016E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H14">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I14">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J14">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N14">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O14">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P14">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q14">
-        <v>161.5558707379213</v>
+        <v>6.215622862885</v>
       </c>
       <c r="R14">
-        <v>1454.002836641292</v>
+        <v>55.940605765965</v>
       </c>
       <c r="S14">
-        <v>0.1854425603982412</v>
+        <v>0.001133900014717048</v>
       </c>
       <c r="T14">
-        <v>0.1854425603982412</v>
+        <v>0.001133900014717048</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H15">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I15">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J15">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.350685</v>
       </c>
       <c r="O15">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P15">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q15">
-        <v>0.5102076018238888</v>
+        <v>0.02479332393611111</v>
       </c>
       <c r="R15">
-        <v>4.591868416414999</v>
+        <v>0.223139915425</v>
       </c>
       <c r="S15">
-        <v>0.0005856438616851817</v>
+        <v>4.522982007790628E-06</v>
       </c>
       <c r="T15">
-        <v>0.0005856438616851816</v>
+        <v>4.522982007790629E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H16">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I16">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J16">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N16">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O16">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P16">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q16">
-        <v>1.584481714309222</v>
+        <v>0.1205128439505555</v>
       </c>
       <c r="R16">
-        <v>14.260335428783</v>
+        <v>1.084615595555</v>
       </c>
       <c r="S16">
-        <v>0.001818753751650123</v>
+        <v>2.198484665874692E-05</v>
       </c>
       <c r="T16">
-        <v>0.001818753751650122</v>
+        <v>2.198484665874693E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H17">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I17">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J17">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N17">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O17">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P17">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q17">
-        <v>2.577916468653222</v>
+        <v>0.1519516858605556</v>
       </c>
       <c r="R17">
-        <v>23.201248217879</v>
+        <v>1.367565172745</v>
       </c>
       <c r="S17">
-        <v>0.002959071857037962</v>
+        <v>2.772015333529931E-05</v>
       </c>
       <c r="T17">
-        <v>0.002959071857037961</v>
+        <v>2.772015333529931E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H18">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I18">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J18">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N18">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O18">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P18">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q18">
-        <v>4.179689226376333</v>
+        <v>0.2199129110916666</v>
       </c>
       <c r="R18">
-        <v>37.617203037387</v>
+        <v>1.979216199825</v>
       </c>
       <c r="S18">
-        <v>0.004797673202885577</v>
+        <v>4.011814400971697E-05</v>
       </c>
       <c r="T18">
-        <v>0.004797673202885576</v>
+        <v>4.011814400971698E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H19">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I19">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J19">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N19">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O19">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P19">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q19">
-        <v>3.022165775258555</v>
+        <v>0.05889470140666667</v>
       </c>
       <c r="R19">
-        <v>27.199491977327</v>
+        <v>0.53005231266</v>
       </c>
       <c r="S19">
-        <v>0.003469005222478324</v>
+        <v>1.074400816538265E-05</v>
       </c>
       <c r="T19">
-        <v>0.003469005222478322</v>
+        <v>1.074400816538265E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H20">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I20">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J20">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N20">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O20">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P20">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q20">
-        <v>20.28171494254267</v>
+        <v>128.86831072743</v>
       </c>
       <c r="R20">
-        <v>182.535434482884</v>
+        <v>1159.81479654687</v>
       </c>
       <c r="S20">
-        <v>0.02328044862147838</v>
+        <v>0.02350911286830718</v>
       </c>
       <c r="T20">
-        <v>0.02328044862147837</v>
+        <v>0.02350911286830718</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H21">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I21">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J21">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.350685</v>
       </c>
       <c r="O21">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P21">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q21">
-        <v>0.06405143368944445</v>
+        <v>0.5140391950166667</v>
       </c>
       <c r="R21">
-        <v>0.576462903205</v>
+        <v>4.62635275515</v>
       </c>
       <c r="S21">
-        <v>7.352169751736978E-05</v>
+        <v>9.377484182236849E-05</v>
       </c>
       <c r="T21">
-        <v>7.352169751736975E-05</v>
+        <v>9.377484182236849E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H22">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I22">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J22">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N22">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O22">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P22">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q22">
-        <v>0.1989157454601111</v>
+        <v>2.498588952943333</v>
       </c>
       <c r="R22">
-        <v>1.790241709141</v>
+        <v>22.48730057649</v>
       </c>
       <c r="S22">
-        <v>0.000228326243875639</v>
+        <v>0.0004558111251298289</v>
       </c>
       <c r="T22">
-        <v>0.0002283262438756389</v>
+        <v>0.0004558111251298289</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H23">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I23">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J23">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N23">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O23">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P23">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q23">
-        <v>0.3236314887481112</v>
+        <v>3.150409460323334</v>
       </c>
       <c r="R23">
-        <v>2.912683398733</v>
+        <v>28.35368514291001</v>
       </c>
       <c r="S23">
-        <v>0.0003714817148075154</v>
+        <v>0.0005747210556734595</v>
       </c>
       <c r="T23">
-        <v>0.0003714817148075153</v>
+        <v>0.0005747210556734594</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H24">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I24">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J24">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N24">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O24">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P24">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q24">
-        <v>0.5247179508276668</v>
+        <v>4.55944737715</v>
       </c>
       <c r="R24">
-        <v>4.722461557449001</v>
+        <v>41.03502639435</v>
       </c>
       <c r="S24">
-        <v>0.0006022996245444453</v>
+        <v>0.0008317682012084532</v>
       </c>
       <c r="T24">
-        <v>0.0006022996245444452</v>
+        <v>0.0008317682012084532</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H25">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I25">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J25">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N25">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O25">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P25">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q25">
-        <v>0.3794025217587779</v>
+        <v>1.22106196732</v>
       </c>
       <c r="R25">
-        <v>3.414622695829</v>
+        <v>10.98955770588</v>
       </c>
       <c r="S25">
-        <v>0.0004354987208767678</v>
+        <v>0.0002227551788867589</v>
       </c>
       <c r="T25">
-        <v>0.0004354987208767676</v>
+        <v>0.0002227551788867589</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H26">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I26">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J26">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N26">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O26">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P26">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q26">
-        <v>10.86995146181467</v>
+        <v>10.585502398344</v>
       </c>
       <c r="R26">
-        <v>97.829563156332</v>
+        <v>95.269521585096</v>
       </c>
       <c r="S26">
-        <v>0.01247711780003032</v>
+        <v>0.001931085844500294</v>
       </c>
       <c r="T26">
-        <v>0.01247711780003032</v>
+        <v>0.001931085844500294</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H27">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I27">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J27">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.350685</v>
       </c>
       <c r="O27">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P27">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q27">
-        <v>0.03432825957944444</v>
+        <v>0.04222421401333332</v>
       </c>
       <c r="R27">
-        <v>0.308954336215</v>
+        <v>0.38001792612</v>
       </c>
       <c r="S27">
-        <v>3.940383176018737E-05</v>
+        <v>7.702854234774425E-06</v>
       </c>
       <c r="T27">
-        <v>3.940383176018735E-05</v>
+        <v>7.702854234774427E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H28">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I28">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J28">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N28">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O28">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P28">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q28">
-        <v>0.1066085636381111</v>
+        <v>0.2052391251546666</v>
       </c>
       <c r="R28">
-        <v>0.959477072743</v>
+        <v>1.847152126392</v>
       </c>
       <c r="S28">
-        <v>0.0001223710714511948</v>
+        <v>3.744124316535071E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001223710714511948</v>
+        <v>3.744124316535072E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H29">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I29">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J29">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N29">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O29">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P29">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q29">
-        <v>0.1734497592621111</v>
+        <v>0.2587809734586667</v>
       </c>
       <c r="R29">
-        <v>1.561047833359</v>
+        <v>2.329028761128</v>
       </c>
       <c r="S29">
-        <v>0.0001990950085014428</v>
+        <v>4.720874417356092E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001990950085014427</v>
+        <v>4.720874417356093E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H30">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I30">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J30">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N30">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O30">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P30">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q30">
-        <v>0.2812217148696667</v>
+        <v>0.3745221837199999</v>
       </c>
       <c r="R30">
-        <v>2.530995433827</v>
+        <v>3.37069965348</v>
       </c>
       <c r="S30">
-        <v>0.0003228014841355689</v>
+        <v>6.832311403057952E-05</v>
       </c>
       <c r="T30">
-        <v>0.0003228014841355688</v>
+        <v>6.832311403057954E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H31">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I31">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J31">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N31">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O31">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P31">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q31">
-        <v>0.2033401518407778</v>
+        <v>0.100300487456</v>
       </c>
       <c r="R31">
-        <v>1.830061366567</v>
+        <v>0.902704387104</v>
       </c>
       <c r="S31">
-        <v>0.0002334048166549849</v>
+        <v>1.829755870189606E-05</v>
       </c>
       <c r="T31">
-        <v>0.0002334048166549848</v>
+        <v>1.829755870189607E-05</v>
       </c>
     </row>
   </sheetData>
